--- a/resources/op_rubric/opforllm.xlsx
+++ b/resources/op_rubric/opforllm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmchozas/Documents/GitHub/pacoia/resources/samples/op_rubric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmchozas/Documents/GitHub/pacoia/resources/op_rubric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31648CA3-C967-9148-B18C-5EEA9618FF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FDA4C-24C9-5148-92F0-95303340B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{B4E0AEFD-90DF-9D45-ADC1-0E6992F90F27}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{B4E0AEFD-90DF-9D45-ADC1-0E6992F90F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,12 +59,6 @@
     <t>Grading the Innovation</t>
   </si>
   <si>
-    <t>The speech contains mentions to the key features that make the application innovative, including mentions to the novelty and originality of the service.</t>
-  </si>
-  <si>
-    <t>Grading the Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">The speech contains mentions to the data flow, such as inputs and outputs of the modules, data sources, data bases, knowledge bases, files or corpus. </t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>The speech mentions the limitations of previous approaches or existing solutions, such as the gaps, shortcomings, drawbacks, challenges or weaknesses.</t>
   </si>
   <si>
-    <t xml:space="preserve">The speech contains mentions to the architecture of the application. </t>
-  </si>
-  <si>
     <t>The speech contains mentions to the algorithms used, such as applications, services, APIs or libraries.</t>
   </si>
   <si>
@@ -166,6 +157,15 @@
   </si>
   <si>
     <t xml:space="preserve">The speech is grammatically correct. It avoids incorrect expressions or invented terms. </t>
+  </si>
+  <si>
+    <t>The speech contains mention to the specific problem, gap or limitation that needs to be addressed.</t>
+  </si>
+  <si>
+    <t>The speech presents a general overview of the technical solution proposed.</t>
+  </si>
+  <si>
+    <t>The speech contains mentions to the key features that make the application innovative, in comparison with previous appproaches, including mentions to the novelty and originality of the service.</t>
   </si>
 </sst>
 </file>
@@ -224,12 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -579,7 +578,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="80.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,30 +589,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
+      <c r="A3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -623,107 +622,107 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/resources/op_rubric/opforllm.xlsx
+++ b/resources/op_rubric/opforllm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmchozas/Documents/GitHub/pacoia/resources/op_rubric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4FDA4C-24C9-5148-92F0-95303340B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A41221-E5D4-294E-B1E1-386ADFFCF9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{B4E0AEFD-90DF-9D45-ADC1-0E6992F90F27}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{B4E0AEFD-90DF-9D45-ADC1-0E6992F90F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Grading the Introduction</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Grading the Innovation</t>
   </si>
   <si>
+    <t>Grading the Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">The speech contains mentions to the data flow, such as inputs and outputs of the modules, data sources, data bases, knowledge bases, files or corpus. </t>
   </si>
   <si>
@@ -74,19 +77,10 @@
     <t>Grading the language</t>
   </si>
   <si>
-    <t>ADD SIGNPOSTS</t>
-  </si>
-  <si>
-    <t>ADD CONTRACTIONS, FILLERS, INFORMAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">The speech employs “hedging” or tentative language. </t>
   </si>
   <si>
     <t xml:space="preserve">The speech is rich and diverse. It avoids repetitions, for example, using the same term several times within the same sentence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD HEDGING </t>
   </si>
   <si>
     <t>Grade</t>
@@ -123,6 +117,9 @@
     <t>The speech mentions the limitations of previous approaches or existing solutions, such as the gaps, shortcomings, drawbacks, challenges or weaknesses.</t>
   </si>
   <si>
+    <t xml:space="preserve">The speech contains mentions to the architecture of the application. </t>
+  </si>
+  <si>
     <t>The speech contains mentions to the algorithms used, such as applications, services, APIs or libraries.</t>
   </si>
   <si>
@@ -159,13 +156,13 @@
     <t xml:space="preserve">The speech is grammatically correct. It avoids incorrect expressions or invented terms. </t>
   </si>
   <si>
+    <t>The speech contains mentions to the key features that make the application innovative, in comparison with previous appproaches, including mentions to the novelty and originality of the service.</t>
+  </si>
+  <si>
     <t>The speech contains mention to the specific problem, gap or limitation that needs to be addressed.</t>
   </si>
   <si>
     <t>The speech presents a general overview of the technical solution proposed.</t>
-  </si>
-  <si>
-    <t>The speech contains mentions to the key features that make the application innovative, in comparison with previous appproaches, including mentions to the novelty and originality of the service.</t>
   </si>
 </sst>
 </file>
@@ -224,11 +221,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -575,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AEC93D-2057-024F-93BB-128656E6A298}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="80.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,30 +587,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -622,107 +620,110 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
+      <c r="A7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
